--- a/PopsRallyResults.xlsx
+++ b/PopsRallyResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="159">
   <si>
     <t>Student.ID</t>
   </si>
@@ -23,403 +23,424 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>X1st.9.Weeks</t>
-  </si>
-  <si>
-    <t>X2nd.9.Weeks</t>
+    <t>X2nd.9.Weeks..Gradebook.</t>
+  </si>
+  <si>
+    <t>X3rd.9.Weeks..Gradebook.</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
-    <t>Khawar, Halimah Noor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguilera-O, Abraham </t>
   </si>
   <si>
+    <t>Barbee, Simeon Tayshaun</t>
+  </si>
+  <si>
+    <t>Allen, Crystal Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruiz, Lilianna </t>
+  </si>
+  <si>
     <t xml:space="preserve">Huynh, David </t>
   </si>
   <si>
-    <t>Harville, A'naijah Khalee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvarado-Nario, Gladis </t>
+    <t>McDonald, Larone Ravon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matos, Jaden </t>
+  </si>
+  <si>
+    <t>Carter, Mikhaela Denice</t>
   </si>
   <si>
     <t>Peterson, Zoe McKenna</t>
   </si>
   <si>
+    <t xml:space="preserve">Cakic, Ema </t>
+  </si>
+  <si>
+    <t>Salone, Eyondrey Ryezel</t>
+  </si>
+  <si>
+    <t>Hollins, Lyric Manyea Janice</t>
+  </si>
+  <si>
+    <t>Hendricks, Zye Aire Xavionn</t>
+  </si>
+  <si>
     <t>Coronel-Jaimes, Jordan Rafael</t>
   </si>
   <si>
-    <t>White, Madison Leigh</t>
-  </si>
-  <si>
-    <t>Hollins, Lyric Manyea Janice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cakic, Ema </t>
-  </si>
-  <si>
-    <t>Agbonwaneten, Owen Osayuki</t>
-  </si>
-  <si>
-    <t>Thomas, Layla Marie</t>
-  </si>
-  <si>
-    <t>Hendricks, Zye Aire Xavionn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzales, Jeremiah </t>
+    <t>Freeman, Johnathan Xavier</t>
+  </si>
+  <si>
+    <t>Sanchez, Johnathan Jose</t>
+  </si>
+  <si>
+    <t>Garcia, Jose Luis</t>
+  </si>
+  <si>
+    <t>Gomez, Leonardo Noel</t>
+  </si>
+  <si>
+    <t>Kirkland, Armand Jamell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramirez, Josue </t>
+  </si>
+  <si>
+    <t>Constancio, Kianna Nicole</t>
+  </si>
+  <si>
+    <t>Aguilera, Damaris Judit</t>
+  </si>
+  <si>
+    <t>Navarro-Perez, Tammie Reinae</t>
+  </si>
+  <si>
+    <t>Miller, Carmen Jame</t>
+  </si>
+  <si>
+    <t>Gonzalez-Alvarez, Josiah Daniel</t>
+  </si>
+  <si>
+    <t>Fernandez, Jayden Michael</t>
+  </si>
+  <si>
+    <t>Adams, Anthony Jay Carlos</t>
   </si>
   <si>
     <t>Breithaupt, Gianna Grae</t>
   </si>
   <si>
-    <t>Navarro-Perez, Tammie Reinae</t>
+    <t xml:space="preserve">Reh, Pay </t>
   </si>
   <si>
     <t>Smith, Christopher Oneal</t>
   </si>
   <si>
-    <t xml:space="preserve">Coronel-Jaimes, Anthony </t>
-  </si>
-  <si>
-    <t>Aguilera, Damaris Judit</t>
-  </si>
-  <si>
-    <t>Gonzalez-Alvarez, Josiah Daniel</t>
-  </si>
-  <si>
-    <t>Adams, Anthony Jay Carlos</t>
-  </si>
-  <si>
-    <t>Fernandez, Jayden Michael</t>
-  </si>
-  <si>
-    <t>Edwards, Ta'Liyah Renee</t>
-  </si>
-  <si>
-    <t>Salazar, Asya Mo'nique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morales Galvan, Fernando </t>
-  </si>
-  <si>
-    <t>Bailey, Tashir Shauncel</t>
+    <t>Smith, Gabriel Mathias</t>
+  </si>
+  <si>
+    <t>Harris, Audrey Mae</t>
   </si>
   <si>
     <t>D'Cruz, Karen Ray</t>
   </si>
   <si>
-    <t>Noah, Matilda Rose</t>
-  </si>
-  <si>
-    <t>Overton, Kamron Smith</t>
-  </si>
-  <si>
-    <t>Hill, Ariana Andrew</t>
-  </si>
-  <si>
-    <t>Daniels, Emaya Janae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vukelaj, Denise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doe, Joshua </t>
-  </si>
-  <si>
-    <t>Baylor, Braylon Larue</t>
-  </si>
-  <si>
-    <t>Montgomery, Ronniah Ta'Shon</t>
-  </si>
-  <si>
-    <t>Braziel, Markyra Schyann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen, Jonathan </t>
-  </si>
-  <si>
-    <t>Valdes, Kelsey Lin</t>
-  </si>
-  <si>
-    <t>Porter, Kayden Daniel</t>
-  </si>
-  <si>
-    <t>Baca Soto, Dana Joselyn</t>
-  </si>
-  <si>
-    <t>Jones, Tamar Isaac</t>
-  </si>
-  <si>
-    <t>Gonzalez, Kaylee Abygail</t>
+    <t>Hartman, Ronan Beowulf</t>
+  </si>
+  <si>
+    <t>Lander, Aaron William</t>
+  </si>
+  <si>
+    <t>Munn, Joshua Ian</t>
+  </si>
+  <si>
+    <t>Williams, Leon Desmond</t>
+  </si>
+  <si>
+    <t>Colindres, Erick Daniel</t>
+  </si>
+  <si>
+    <t>Gezahegne, Betelehem Habtemariam</t>
   </si>
   <si>
     <t>Jones, Karis Renae</t>
   </si>
   <si>
+    <t>Kunz, Bethany Joy</t>
+  </si>
+  <si>
     <t>Corzine, Trinity Ann</t>
   </si>
   <si>
-    <t>Hill-Mosley, Kaliyah Danielle</t>
-  </si>
-  <si>
-    <t>Webb, Aaliyah Marie</t>
-  </si>
-  <si>
-    <t>Scott, Alyssa Ellen</t>
-  </si>
-  <si>
-    <t>Borgardts, Layne Marshall</t>
-  </si>
-  <si>
     <t>Lopez-Reyes, America Ixtzel</t>
   </si>
   <si>
-    <t>Solorzano-Figueroa, Maria Guadalupe</t>
-  </si>
-  <si>
-    <t>Gonzalez, Genesis Glorymar</t>
-  </si>
-  <si>
-    <t>Shaw, Andrea Dionne</t>
-  </si>
-  <si>
-    <t>Williams, Skyler Emon</t>
-  </si>
-  <si>
-    <t>Gangone, Jayda Rae</t>
-  </si>
-  <si>
-    <t>Sanchez, Gabriella Michelle</t>
+    <t>Calvillo, Tristan Hunter</t>
+  </si>
+  <si>
+    <t>Castilleja, Jesse James</t>
   </si>
   <si>
     <t>Montalvo, Selena Cirilla</t>
   </si>
   <si>
-    <t>De Los Santos Gonzales, Zoey Alliyah</t>
-  </si>
-  <si>
-    <t>Barahona, Brandon Hadid</t>
-  </si>
-  <si>
-    <t>Jones, Thomas Lain</t>
+    <t>Baker, Da Shon Demarquis-Oni</t>
+  </si>
+  <si>
+    <t>Oakley, Shay Marie</t>
+  </si>
+  <si>
+    <t>Vasquez, Julia Isabelle</t>
+  </si>
+  <si>
+    <t>Clark, Nikaela Marie</t>
+  </si>
+  <si>
+    <t>Jones, Zacorri Leren</t>
+  </si>
+  <si>
+    <t>Parker, Theodore Christopher</t>
+  </si>
+  <si>
+    <t>Johnson, Xavier Tellon</t>
   </si>
   <si>
     <t>Munoz Reyes, Natalie Sierra</t>
   </si>
   <si>
+    <t>Bryant, Nathaniel Louis James</t>
+  </si>
+  <si>
+    <t>Hernandez, Ana Marie</t>
+  </si>
+  <si>
     <t>Hardeman, Monique La'Shea</t>
   </si>
   <si>
-    <t>Bryant, Nathaniel Louis James</t>
-  </si>
-  <si>
-    <t>Hernandez-Entwhistle, Eric Tyden</t>
-  </si>
-  <si>
-    <t>Landa, Jacob Dylan</t>
-  </si>
-  <si>
-    <t>Oakley, Jet Blaze</t>
+    <t>McKeithan, Terrance Lamont</t>
+  </si>
+  <si>
+    <t>Garcia Najarro, Angela Krystal</t>
+  </si>
+  <si>
+    <t>Perez-Reyes, Emely Jasmin</t>
+  </si>
+  <si>
+    <t>Hernandez-Sandoval, Emily Arlete</t>
+  </si>
+  <si>
+    <t>Baeza Zarco, Danna Paola</t>
+  </si>
+  <si>
+    <t>Turcios Guillen, Abel Osmin</t>
+  </si>
+  <si>
+    <t>Albarran, Naomi Cassandra</t>
   </si>
   <si>
     <t xml:space="preserve">Landin, Jason </t>
   </si>
   <si>
-    <t>Perez-Reyes, Emely Jasmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaimes-Aviles, Emily </t>
-  </si>
-  <si>
-    <t>Urena, Didier Yosbel</t>
-  </si>
-  <si>
-    <t>Baeza Zarco, Danna Paola</t>
-  </si>
-  <si>
-    <t>Garcia Najarro, Angela Krystal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Espinoza-Santander, Crystal </t>
   </si>
   <si>
+    <t>Guevara-Mejia, Jonathan Imanol</t>
+  </si>
+  <si>
+    <t>Lopez Reyes, Michael Elijah</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martinez, Kayla </t>
   </si>
   <si>
-    <t xml:space="preserve">Rodriguez, Valeria </t>
-  </si>
-  <si>
-    <t>Lopez-Faz, Danny Gabriel</t>
+    <t xml:space="preserve">Vega, Alejandro </t>
+  </si>
+  <si>
+    <t>Castillo-Nino, Mayte Fernanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallegos Raygoza, William </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soria Jaramillo, Ariana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galvan, Melissa </t>
+  </si>
+  <si>
+    <t>Soto Deras, Eliany Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garces, Kevin </t>
   </si>
   <si>
     <t xml:space="preserve">Salazar-Tellez, Brandon </t>
   </si>
   <si>
-    <t>Santos Bardales, Nayeli Monserrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hernandez, Clarissa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldonado-Medina, Ryan </t>
-  </si>
-  <si>
-    <t>Thomas, La'najha Elise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Songolo, Abdala </t>
-  </si>
-  <si>
-    <t>Urban-Graves, Jayce Nevay</t>
-  </si>
-  <si>
-    <t>Ward, Eddjia Cardejia Carlyia Awe Jean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vazquez-Castro, Nathan </t>
-  </si>
-  <si>
-    <t>Schank, Taryn Inez</t>
-  </si>
-  <si>
-    <t>Evans, Zaeden Ryan</t>
-  </si>
-  <si>
-    <t>Everest, Amora Chiamaka</t>
-  </si>
-  <si>
-    <t>Villarreal, Santonio Maurizio</t>
-  </si>
-  <si>
-    <t>Agbonwaneten, Enoma Osasenaro</t>
-  </si>
-  <si>
-    <t>Williams, Jayla Michelle</t>
-  </si>
-  <si>
-    <t>Rebollar-Maldonado, Johanna Paola</t>
-  </si>
-  <si>
-    <t>Frasier, Jalaal Rashad</t>
-  </si>
-  <si>
-    <t>Kuffel, Cecilio Edward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahrooni, Farangeis </t>
-  </si>
-  <si>
-    <t>Escobar, Adrian Joel</t>
-  </si>
-  <si>
-    <t>Dixon, Demari Jammel</t>
-  </si>
-  <si>
-    <t>Espinoza, Ramses Angel</t>
-  </si>
-  <si>
-    <t>Brown, Alanie Shontel</t>
-  </si>
-  <si>
-    <t>Al Saedi, Ali Mahdi Salih</t>
-  </si>
-  <si>
-    <t>Hopkins, Jaelyn Elise</t>
+    <t xml:space="preserve">Perez-Jaramillo, Kimberly </t>
+  </si>
+  <si>
+    <t>Manor, Maliya Andrea</t>
+  </si>
+  <si>
+    <t>Burleson-Riley, Zamara Amaru-Mae</t>
+  </si>
+  <si>
+    <t>Aguirre, Kaylee Sophia</t>
+  </si>
+  <si>
+    <t>Herd, Reese Macallister</t>
+  </si>
+  <si>
+    <t>Rivera-Cannon, Charlotte Sometimes</t>
+  </si>
+  <si>
+    <t>Mims, Ronald Eugene</t>
+  </si>
+  <si>
+    <t>Smith, Angel Chavette</t>
+  </si>
+  <si>
+    <t>Anderson, Hailey Grace</t>
+  </si>
+  <si>
+    <t>Alvarez, Adrian Esai</t>
+  </si>
+  <si>
+    <t>Carter, Ke'von Katavis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabi, Prema </t>
+  </si>
+  <si>
+    <t>Webb, Avery Jeremiah</t>
+  </si>
+  <si>
+    <t>Barahona, Christoffer Hadid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldonado-Coahuilas, Miriam </t>
+  </si>
+  <si>
+    <t>Martinez Rodriguez, Ashley Mitzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinoco Najera, Michael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saucedo Villarreal, Evelyn </t>
+  </si>
+  <si>
+    <t>Rodriguez, Natalie Stephanie</t>
+  </si>
+  <si>
+    <t>Rodriguez-Martinez, Jose Luis</t>
+  </si>
+  <si>
+    <t>Antonio, Carolina Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaramillo, Sergio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benitez Avila, Freddy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John, Malachi </t>
+  </si>
+  <si>
+    <t>Tonche, Izaiah Renee</t>
+  </si>
+  <si>
+    <t>Henley-Jones, Landon Caine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanchez, Keily </t>
+  </si>
+  <si>
+    <t>Rocha, John Jacob-Alexande</t>
   </si>
   <si>
     <t>Tower, Kayla Michelle</t>
   </si>
   <si>
-    <t>Campbell, Ja'Nia Danell Louise</t>
-  </si>
-  <si>
-    <t>Rocha, John Jacob-Alexande</t>
-  </si>
-  <si>
     <t>Haider, Ali Abdullah</t>
   </si>
   <si>
-    <t>Crawford, Jazmine Antoinette</t>
+    <t>Morgan, Jeremiah Lucas</t>
   </si>
   <si>
     <t>Chavez-Escobedo, Jonathan Alberto</t>
   </si>
   <si>
-    <t>Martinez-Figueroa, Maria Alexa</t>
-  </si>
-  <si>
-    <t>Rivera Gavarrete, Nahomy Julieth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodriguez Martinez, Leonel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominguez, Bladimir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal, Elaine </t>
-  </si>
-  <si>
-    <t>Hernandez-Calvac, Kenia Antonia</t>
-  </si>
-  <si>
-    <t>Cervera, Ashley Donna</t>
-  </si>
-  <si>
-    <t>Martinez Guzman, Jose Cleo</t>
+    <t xml:space="preserve">Minez-Salas, Aaron </t>
+  </si>
+  <si>
+    <t>Pineda-Diaz, Juan David</t>
+  </si>
+  <si>
+    <t>Stokes, Kelton Lee</t>
   </si>
   <si>
     <t>Bentrand Hyatt, Ramon Luziano</t>
   </si>
   <si>
-    <t>Esquivel, Ciara Lillian</t>
+    <t>Colpen, Xavier Lane</t>
+  </si>
+  <si>
+    <t>Guillory, Michaiah Rhianna</t>
   </si>
   <si>
     <t>Booker, Javion Jessie-Edward</t>
   </si>
   <si>
-    <t>Stokes, Kelton Lee</t>
-  </si>
-  <si>
-    <t>Lasseter, Gabriel Andreas</t>
-  </si>
-  <si>
-    <t>Maldonado, Miranda Bella</t>
-  </si>
-  <si>
     <t>Villalon, Gael Xavier</t>
   </si>
   <si>
-    <t>Colpen, Xavier Lane</t>
-  </si>
-  <si>
-    <t>Swinney, Alexandra Anjelica</t>
-  </si>
-  <si>
     <t>Vela, Jeremiah Antonio</t>
   </si>
   <si>
+    <t>Sorrells, Jamaree Daejon</t>
+  </si>
+  <si>
+    <t>Montalvo, Alagio Geahnny</t>
+  </si>
+  <si>
+    <t>Johnson, Ariana Tranea</t>
+  </si>
+  <si>
+    <t>McCaffety, Cameron Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia, Aaron </t>
+  </si>
+  <si>
+    <t>Venegas-Martinez, Jose Antonio</t>
+  </si>
+  <si>
+    <t>Orocio Zarco, David Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molina Munoz, Debanhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernandez, Sean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldana-Rodriguez, Bryan </t>
+  </si>
+  <si>
+    <t>Hernandez Paxtor, Diana Mariella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierrez Hernandez, Milca </t>
+  </si>
+  <si>
+    <t>Marrero Rivera, Yahir Jomar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Romero, Juan </t>
+  </si>
+  <si>
+    <t>Lopez-Faz, Angel Daniel</t>
+  </si>
+  <si>
     <t>Carbajal, Edson Antonio Benite</t>
   </si>
   <si>
-    <t>Benitez Avila, Cindy Marie</t>
-  </si>
-  <si>
-    <t>Vazquez-Castro, Gael Esteban</t>
-  </si>
-  <si>
-    <t>Lopez-Faz, Angel Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perez Jaramillo, Hector </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chavez Escobedo, Rodolfo </t>
+    <t>Cabrera Romero, Cristian Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldonado Medina, Mario </t>
+  </si>
+  <si>
+    <t>Mejia Coto, Alvaro Lizandro</t>
   </si>
   <si>
     <t>Blair, Travis</t>
@@ -455,7 +476,7 @@
     <t>Miguel, Katrina</t>
   </si>
   <si>
-    <t>Ray, Courtney</t>
+    <t>Olivo, Claudia</t>
   </si>
   <si>
     <t>Smythia, Kimberly</t>
@@ -540,182 +561,182 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>755324.0</v>
+        <v>778151.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>78.0</v>
+        <v>85.25</v>
       </c>
       <c r="E2" t="n">
-        <v>78.75</v>
+        <v>94.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>778151.0</v>
+        <v>764493.0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>85.0</v>
+        <v>80.5</v>
       </c>
       <c r="E3" t="n">
-        <v>85.75</v>
+        <v>90.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>764918.0</v>
+        <v>760248.0</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>80.75</v>
+        <v>80.25</v>
       </c>
       <c r="E4" t="n">
-        <v>82.25</v>
+        <v>91.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>779073.0</v>
+        <v>758566.0</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>84.25</v>
+        <v>80.0</v>
       </c>
       <c r="E5" t="n">
-        <v>86.5</v>
+        <v>92.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>776078.0</v>
+        <v>764918.0</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>88.0</v>
+        <v>82.0</v>
       </c>
       <c r="E6" t="n">
-        <v>88.25</v>
+        <v>97.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>762645.0</v>
+        <v>758835.0</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>90.75</v>
+        <v>81.25</v>
       </c>
       <c r="E7" t="n">
-        <v>91.25</v>
+        <v>97.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1822577.0</v>
+        <v>759211.0</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>72.25</v>
+        <v>80.5</v>
       </c>
       <c r="E8" t="n">
-        <v>72.75</v>
+        <v>96.75</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>766759.0</v>
+        <v>786626.0</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D9" t="n">
-        <v>90.75</v>
+        <v>88.25</v>
       </c>
       <c r="E9" t="n">
-        <v>91.75</v>
+        <v>88.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>762551.0</v>
+        <v>762645.0</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D10" t="n">
-        <v>87.0</v>
+        <v>91.25</v>
       </c>
       <c r="E10" t="n">
-        <v>88.5</v>
+        <v>92.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
@@ -726,56 +747,56 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D11" t="n">
-        <v>91.5</v>
+        <v>93.0</v>
       </c>
       <c r="E11" t="n">
-        <v>93.0</v>
+        <v>94.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>762639.0</v>
+        <v>765552.0</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D12" t="n">
-        <v>89.75</v>
+        <v>68.75</v>
       </c>
       <c r="E12" t="n">
-        <v>91.5</v>
+        <v>71.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>768270.0</v>
+        <v>762551.0</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D13" t="n">
-        <v>83.5</v>
+        <v>88.5</v>
       </c>
       <c r="E13" t="n">
-        <v>85.25</v>
+        <v>91.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
@@ -786,493 +807,493 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D14" t="n">
-        <v>70.5</v>
+        <v>74.25</v>
       </c>
       <c r="E14" t="n">
-        <v>74.25</v>
+        <v>77.25</v>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>786559.0</v>
+        <v>1822577.0</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D15" t="n">
-        <v>86.5</v>
+        <v>72.75</v>
       </c>
       <c r="E15" t="n">
-        <v>87.0</v>
+        <v>76.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1801435.0</v>
+        <v>786598.0</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D16" t="n">
-        <v>80.5</v>
+        <v>74.5</v>
       </c>
       <c r="E16" t="n">
-        <v>81.0</v>
+        <v>81.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>779388.0</v>
+        <v>762523.0</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D17" t="n">
-        <v>95.0</v>
+        <v>75.5</v>
       </c>
       <c r="E17" t="n">
-        <v>96.0</v>
+        <v>82.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>788784.0</v>
+        <v>1822424.0</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D18" t="n">
-        <v>74.5</v>
+        <v>67.75</v>
       </c>
       <c r="E18" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1822570.0</v>
+        <v>763777.0</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D19" t="n">
-        <v>69.75</v>
+        <v>60.5</v>
       </c>
       <c r="E19" t="n">
-        <v>71.25</v>
+        <v>71.75</v>
       </c>
       <c r="F19" t="n">
-        <v>1.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>778150.0</v>
+        <v>768526.0</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D20" t="n">
-        <v>73.75</v>
+        <v>69.0</v>
       </c>
       <c r="E20" t="n">
-        <v>76.0</v>
+        <v>80.75</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>771856.0</v>
+        <v>1801514.0</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D21" t="n">
-        <v>82.5</v>
+        <v>72.0</v>
       </c>
       <c r="E21" t="n">
-        <v>85.75</v>
+        <v>84.75</v>
       </c>
       <c r="F21" t="n">
-        <v>3.25</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1822637.0</v>
+        <v>765802.0</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D22" t="n">
-        <v>73.0</v>
+        <v>81.0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.5</v>
+        <v>81.25</v>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>772744.0</v>
+        <v>778150.0</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D23" t="n">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="E23" t="n">
-        <v>67.5</v>
+        <v>76.25</v>
       </c>
       <c r="F23" t="n">
-        <v>7.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1801587.0</v>
+        <v>779388.0</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D24" t="n">
-        <v>85.0</v>
+        <v>96.0</v>
       </c>
       <c r="E24" t="n">
-        <v>86.0</v>
+        <v>96.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>778067.0</v>
+        <v>779756.0</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D25" t="n">
-        <v>90.75</v>
+        <v>75.75</v>
       </c>
       <c r="E25" t="n">
-        <v>92.5</v>
+        <v>76.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>772200.0</v>
+        <v>771856.0</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D26" t="n">
-        <v>87.25</v>
+        <v>85.75</v>
       </c>
       <c r="E26" t="n">
-        <v>89.25</v>
+        <v>86.75</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>786246.0</v>
+        <v>772744.0</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D27" t="n">
-        <v>90.75</v>
+        <v>67.5</v>
       </c>
       <c r="E27" t="n">
-        <v>93.0</v>
+        <v>68.5</v>
       </c>
       <c r="F27" t="n">
-        <v>2.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>789036.0</v>
+        <v>1822637.0</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D28" t="n">
-        <v>90.5</v>
+        <v>77.5</v>
       </c>
       <c r="E28" t="n">
-        <v>92.75</v>
+        <v>78.5</v>
       </c>
       <c r="F28" t="n">
-        <v>2.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>772036.0</v>
+        <v>1801435.0</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D29" t="n">
-        <v>92.5</v>
+        <v>81.0</v>
       </c>
       <c r="E29" t="n">
-        <v>95.0</v>
+        <v>83.0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>774365.0</v>
+        <v>1822739.0</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D30" t="n">
-        <v>87.75</v>
+        <v>76.5</v>
       </c>
       <c r="E30" t="n">
-        <v>90.25</v>
+        <v>81.0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>787517.0</v>
+        <v>788784.0</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D31" t="n">
-        <v>90.25</v>
+        <v>76.0</v>
       </c>
       <c r="E31" t="n">
-        <v>93.0</v>
+        <v>81.25</v>
       </c>
       <c r="F31" t="n">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>789059.0</v>
+        <v>1801888.0</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D32" t="n">
-        <v>81.25</v>
+        <v>79.75</v>
       </c>
       <c r="E32" t="n">
-        <v>84.25</v>
+        <v>85.25</v>
       </c>
       <c r="F32" t="n">
-        <v>3.0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>772309.0</v>
+        <v>1802070.0</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D33" t="n">
-        <v>91.75</v>
+        <v>83.0</v>
       </c>
       <c r="E33" t="n">
-        <v>95.0</v>
+        <v>88.5</v>
       </c>
       <c r="F33" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>781454.0</v>
+        <v>789036.0</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D34" t="n">
-        <v>91.25</v>
+        <v>92.75</v>
       </c>
       <c r="E34" t="n">
-        <v>95.25</v>
+        <v>93.5</v>
       </c>
       <c r="F34" t="n">
-        <v>4.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>771189.0</v>
+        <v>775977.0</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D35" t="n">
-        <v>91.75</v>
+        <v>92.0</v>
       </c>
       <c r="E35" t="n">
-        <v>96.0</v>
+        <v>93.75</v>
       </c>
       <c r="F35" t="n">
-        <v>4.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1822680.0</v>
+        <v>776399.0</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D36" t="n">
-        <v>89.0</v>
+        <v>88.25</v>
       </c>
       <c r="E36" t="n">
-        <v>93.25</v>
+        <v>91.0</v>
       </c>
       <c r="F36" t="n">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>786975.0</v>
+        <v>1802076.0</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D37" t="n">
-        <v>83.25</v>
+        <v>90.25</v>
       </c>
       <c r="E37" t="n">
-        <v>90.25</v>
+        <v>93.25</v>
       </c>
       <c r="F37" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>789006.0</v>
+        <v>777146.0</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D38" t="n">
-        <v>79.75</v>
+        <v>93.0</v>
       </c>
       <c r="E38" t="n">
-        <v>80.25</v>
+        <v>93.5</v>
       </c>
       <c r="F38" t="n">
         <v>0.5</v>
@@ -1280,19 +1301,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>789891.0</v>
+        <v>765968.0</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D39" t="n">
-        <v>90.75</v>
+        <v>87.25</v>
       </c>
       <c r="E39" t="n">
-        <v>91.5</v>
+        <v>88.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.75</v>
@@ -1300,199 +1321,199 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1801487.0</v>
+        <v>771185.0</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D40" t="n">
-        <v>92.75</v>
+        <v>94.5</v>
       </c>
       <c r="E40" t="n">
-        <v>94.0</v>
+        <v>95.5</v>
       </c>
       <c r="F40" t="n">
-        <v>1.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1801477.0</v>
+        <v>774057.0</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D41" t="n">
-        <v>90.75</v>
+        <v>87.25</v>
       </c>
       <c r="E41" t="n">
-        <v>93.25</v>
+        <v>87.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>770144.0</v>
+        <v>764554.0</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D42" t="n">
-        <v>89.75</v>
+        <v>83.5</v>
       </c>
       <c r="E42" t="n">
-        <v>90.0</v>
+        <v>84.5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>786996.0</v>
+        <v>776998.0</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D43" t="n">
-        <v>88.5</v>
+        <v>83.0</v>
       </c>
       <c r="E43" t="n">
-        <v>88.75</v>
+        <v>84.75</v>
       </c>
       <c r="F43" t="n">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>774057.0</v>
+        <v>786318.0</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D44" t="n">
-        <v>86.75</v>
+        <v>80.5</v>
       </c>
       <c r="E44" t="n">
-        <v>87.25</v>
+        <v>82.25</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>776998.0</v>
+        <v>771196.0</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D45" t="n">
-        <v>82.5</v>
+        <v>81.75</v>
       </c>
       <c r="E45" t="n">
-        <v>83.0</v>
+        <v>85.25</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1801496.0</v>
+        <v>1802065.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D46" t="n">
-        <v>87.75</v>
+        <v>79.5</v>
       </c>
       <c r="E46" t="n">
-        <v>88.5</v>
+        <v>83.75</v>
       </c>
       <c r="F46" t="n">
-        <v>0.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>768883.0</v>
+        <v>775994.0</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D47" t="n">
-        <v>87.75</v>
+        <v>90.0</v>
       </c>
       <c r="E47" t="n">
-        <v>88.75</v>
+        <v>90.25</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>772313.0</v>
+        <v>788013.0</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D48" t="n">
-        <v>90.5</v>
+        <v>82.5</v>
       </c>
       <c r="E48" t="n">
-        <v>91.75</v>
+        <v>83.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>774370.0</v>
+        <v>783620.0</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D49" t="n">
-        <v>88.0</v>
+        <v>85.5</v>
       </c>
       <c r="E49" t="n">
-        <v>89.25</v>
+        <v>86.75</v>
       </c>
       <c r="F49" t="n">
         <v>1.25</v>
@@ -1500,479 +1521,479 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>786318.0</v>
+        <v>766780.0</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D50" t="n">
-        <v>79.25</v>
+        <v>92.5</v>
       </c>
       <c r="E50" t="n">
-        <v>80.5</v>
+        <v>95.25</v>
       </c>
       <c r="F50" t="n">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1801887.0</v>
+        <v>773751.0</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D51" t="n">
-        <v>90.5</v>
+        <v>87.0</v>
       </c>
       <c r="E51" t="n">
-        <v>92.25</v>
+        <v>92.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.75</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>781482.0</v>
+        <v>776029.0</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D52" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E52" t="n">
         <v>85.25</v>
       </c>
-      <c r="E52" t="n">
-        <v>87.5</v>
-      </c>
       <c r="F52" t="n">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>774138.0</v>
+        <v>779950.0</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D53" t="n">
-        <v>88.75</v>
+        <v>94.25</v>
       </c>
       <c r="E53" t="n">
-        <v>91.25</v>
+        <v>94.5</v>
       </c>
       <c r="F53" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>770991.0</v>
+        <v>781833.0</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D54" t="n">
-        <v>85.5</v>
+        <v>95.75</v>
       </c>
       <c r="E54" t="n">
-        <v>89.0</v>
+        <v>96.0</v>
       </c>
       <c r="F54" t="n">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1822536.0</v>
+        <v>777391.0</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D55" t="n">
-        <v>85.5</v>
+        <v>82.5</v>
       </c>
       <c r="E55" t="n">
-        <v>89.0</v>
+        <v>83.25</v>
       </c>
       <c r="F55" t="n">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>765766.0</v>
+        <v>783631.0</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D56" t="n">
-        <v>83.25</v>
+        <v>90.25</v>
       </c>
       <c r="E56" t="n">
-        <v>87.25</v>
+        <v>91.0</v>
       </c>
       <c r="F56" t="n">
-        <v>4.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>775994.0</v>
+        <v>786166.0</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D57" t="n">
-        <v>89.75</v>
+        <v>92.0</v>
       </c>
       <c r="E57" t="n">
-        <v>90.0</v>
+        <v>94.75</v>
       </c>
       <c r="F57" t="n">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>762669.0</v>
+        <v>1822811.0</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D58" t="n">
-        <v>80.5</v>
+        <v>87.0</v>
       </c>
       <c r="E58" t="n">
-        <v>81.0</v>
+        <v>90.5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>774058.0</v>
+        <v>782287.0</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D59" t="n">
-        <v>93.75</v>
+        <v>87.25</v>
       </c>
       <c r="E59" t="n">
-        <v>94.75</v>
+        <v>91.25</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>763121.0</v>
+        <v>777017.0</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D60" t="n">
-        <v>77.0</v>
+        <v>85.75</v>
       </c>
       <c r="E60" t="n">
-        <v>78.75</v>
+        <v>86.5</v>
       </c>
       <c r="F60" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>777391.0</v>
+        <v>781052.0</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D61" t="n">
-        <v>81.0</v>
+        <v>90.75</v>
       </c>
       <c r="E61" t="n">
-        <v>82.5</v>
+        <v>91.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1822811.0</v>
+        <v>782035.0</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D62" t="n">
-        <v>85.0</v>
+        <v>89.5</v>
       </c>
       <c r="E62" t="n">
-        <v>87.0</v>
+        <v>90.5</v>
       </c>
       <c r="F62" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>783631.0</v>
+        <v>785921.0</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D63" t="n">
-        <v>87.5</v>
+        <v>87.25</v>
       </c>
       <c r="E63" t="n">
-        <v>90.25</v>
+        <v>88.25</v>
       </c>
       <c r="F63" t="n">
-        <v>2.75</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>787092.0</v>
+        <v>1801875.0</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D64" t="n">
-        <v>78.25</v>
+        <v>83.0</v>
       </c>
       <c r="E64" t="n">
-        <v>81.0</v>
+        <v>84.25</v>
       </c>
       <c r="F64" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1801252.0</v>
+        <v>776992.0</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D65" t="n">
-        <v>84.25</v>
+        <v>88.0</v>
       </c>
       <c r="E65" t="n">
-        <v>88.0</v>
+        <v>89.5</v>
       </c>
       <c r="F65" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>783618.0</v>
+        <v>781019.0</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D66" t="n">
-        <v>91.25</v>
+        <v>83.5</v>
       </c>
       <c r="E66" t="n">
-        <v>95.75</v>
+        <v>85.0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>781019.0</v>
+        <v>775820.0</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D67" t="n">
-        <v>82.75</v>
+        <v>79.5</v>
       </c>
       <c r="E67" t="n">
-        <v>83.5</v>
+        <v>81.25</v>
       </c>
       <c r="F67" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>781052.0</v>
+        <v>779953.0</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D68" t="n">
-        <v>89.75</v>
+        <v>75.25</v>
       </c>
       <c r="E68" t="n">
-        <v>90.75</v>
+        <v>77.25</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1801280.0</v>
+        <v>786333.0</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D69" t="n">
-        <v>86.0</v>
+        <v>71.75</v>
       </c>
       <c r="E69" t="n">
-        <v>87.0</v>
+        <v>73.75</v>
       </c>
       <c r="F69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>781914.0</v>
+        <v>775481.0</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D70" t="n">
-        <v>80.75</v>
+        <v>88.25</v>
       </c>
       <c r="E70" t="n">
-        <v>82.25</v>
+        <v>90.5</v>
       </c>
       <c r="F70" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>785921.0</v>
+        <v>1822545.0</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D71" t="n">
-        <v>85.25</v>
+        <v>79.25</v>
       </c>
       <c r="E71" t="n">
-        <v>87.25</v>
+        <v>81.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2.0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>777017.0</v>
+        <v>1822428.0</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D72" t="n">
-        <v>83.0</v>
+        <v>87.25</v>
       </c>
       <c r="E72" t="n">
-        <v>85.75</v>
+        <v>89.75</v>
       </c>
       <c r="F72" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>775820.0</v>
+        <v>782031.0</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D73" t="n">
-        <v>76.0</v>
+        <v>74.75</v>
       </c>
       <c r="E73" t="n">
-        <v>79.5</v>
+        <v>78.25</v>
       </c>
       <c r="F73" t="n">
         <v>3.5</v>
@@ -1980,579 +2001,579 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>775481.0</v>
+        <v>775473.0</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D74" t="n">
-        <v>83.25</v>
+        <v>86.25</v>
       </c>
       <c r="E74" t="n">
-        <v>88.25</v>
+        <v>90.0</v>
       </c>
       <c r="F74" t="n">
-        <v>5.0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>772128.0</v>
+        <v>1801876.0</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D75" t="n">
-        <v>84.0</v>
+        <v>81.0</v>
       </c>
       <c r="E75" t="n">
-        <v>84.5</v>
+        <v>85.5</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>772158.0</v>
+        <v>786982.0</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D76" t="n">
-        <v>89.5</v>
+        <v>82.0</v>
       </c>
       <c r="E76" t="n">
-        <v>90.0</v>
+        <v>82.25</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>786209.0</v>
+        <v>788097.0</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D77" t="n">
-        <v>82.5</v>
+        <v>80.75</v>
       </c>
       <c r="E77" t="n">
-        <v>83.25</v>
+        <v>81.75</v>
       </c>
       <c r="F77" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>786199.0</v>
+        <v>786209.0</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D78" t="n">
-        <v>82.75</v>
+        <v>82.25</v>
       </c>
       <c r="E78" t="n">
-        <v>83.75</v>
+        <v>84.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>776044.0</v>
+        <v>1822720.0</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D79" t="n">
-        <v>79.0</v>
+        <v>91.75</v>
       </c>
       <c r="E79" t="n">
-        <v>80.5</v>
+        <v>96.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>771637.0</v>
+        <v>777679.0</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D80" t="n">
-        <v>82.75</v>
+        <v>89.25</v>
       </c>
       <c r="E80" t="n">
         <v>90.0</v>
       </c>
       <c r="F80" t="n">
-        <v>7.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>772045.0</v>
+        <v>788199.0</v>
       </c>
       <c r="B81" t="s">
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D81" t="n">
-        <v>66.75</v>
+        <v>89.25</v>
       </c>
       <c r="E81" t="n">
-        <v>78.0</v>
+        <v>92.0</v>
       </c>
       <c r="F81" t="n">
-        <v>11.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1822533.0</v>
+        <v>772308.0</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D82" t="n">
-        <v>85.75</v>
+        <v>77.75</v>
       </c>
       <c r="E82" t="n">
-        <v>86.5</v>
+        <v>81.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>789080.0</v>
+        <v>777781.0</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D83" t="n">
-        <v>93.0</v>
+        <v>89.25</v>
       </c>
       <c r="E83" t="n">
-        <v>94.25</v>
+        <v>92.5</v>
       </c>
       <c r="F83" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1802073.0</v>
+        <v>772286.0</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D84" t="n">
-        <v>89.75</v>
+        <v>91.0</v>
       </c>
       <c r="E84" t="n">
-        <v>91.25</v>
+        <v>94.5</v>
       </c>
       <c r="F84" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>772307.0</v>
+        <v>770995.0</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D85" t="n">
-        <v>87.25</v>
+        <v>75.0</v>
       </c>
       <c r="E85" t="n">
-        <v>89.0</v>
+        <v>78.75</v>
       </c>
       <c r="F85" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>781426.0</v>
+        <v>1822534.0</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D86" t="n">
-        <v>90.25</v>
+        <v>72.75</v>
       </c>
       <c r="E86" t="n">
-        <v>92.25</v>
+        <v>76.5</v>
       </c>
       <c r="F86" t="n">
-        <v>2.0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>777132.0</v>
+        <v>781408.0</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D87" t="n">
-        <v>91.5</v>
+        <v>94.0</v>
       </c>
       <c r="E87" t="n">
-        <v>93.75</v>
+        <v>98.5</v>
       </c>
       <c r="F87" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>772290.0</v>
+        <v>772340.0</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D88" t="n">
-        <v>94.5</v>
+        <v>79.75</v>
       </c>
       <c r="E88" t="n">
-        <v>97.75</v>
+        <v>84.75</v>
       </c>
       <c r="F88" t="n">
-        <v>3.25</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>772341.0</v>
+        <v>774359.0</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D89" t="n">
-        <v>93.0</v>
+        <v>85.0</v>
       </c>
       <c r="E89" t="n">
-        <v>96.25</v>
+        <v>90.75</v>
       </c>
       <c r="F89" t="n">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>772304.0</v>
+        <v>776395.0</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D90" t="n">
-        <v>90.75</v>
+        <v>87.5</v>
       </c>
       <c r="E90" t="n">
-        <v>94.5</v>
+        <v>93.5</v>
       </c>
       <c r="F90" t="n">
-        <v>3.75</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>775898.0</v>
+        <v>773163.0</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D91" t="n">
-        <v>92.25</v>
+        <v>80.25</v>
       </c>
       <c r="E91" t="n">
-        <v>96.25</v>
+        <v>86.75</v>
       </c>
       <c r="F91" t="n">
-        <v>4.0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>787682.0</v>
+        <v>774060.0</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D92" t="n">
-        <v>84.25</v>
+        <v>76.5</v>
       </c>
       <c r="E92" t="n">
-        <v>88.5</v>
+        <v>84.5</v>
       </c>
       <c r="F92" t="n">
-        <v>4.25</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>775845.0</v>
+        <v>1822671.0</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D93" t="n">
-        <v>93.0</v>
+        <v>79.75</v>
       </c>
       <c r="E93" t="n">
-        <v>98.5</v>
+        <v>80.75</v>
       </c>
       <c r="F93" t="n">
-        <v>5.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>768097.0</v>
+        <v>786812.0</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D94" t="n">
-        <v>86.5</v>
+        <v>87.0</v>
       </c>
       <c r="E94" t="n">
-        <v>94.0</v>
+        <v>88.5</v>
       </c>
       <c r="F94" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>783731.0</v>
+        <v>786533.0</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D95" t="n">
-        <v>86.0</v>
+        <v>72.0</v>
       </c>
       <c r="E95" t="n">
-        <v>93.75</v>
+        <v>74.25</v>
       </c>
       <c r="F95" t="n">
-        <v>7.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>777408.0</v>
+        <v>765734.0</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D96" t="n">
-        <v>85.5</v>
+        <v>85.25</v>
       </c>
       <c r="E96" t="n">
-        <v>93.75</v>
+        <v>87.75</v>
       </c>
       <c r="F96" t="n">
-        <v>8.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>787721.0</v>
+        <v>765738.0</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D97" t="n">
-        <v>86.0</v>
+        <v>81.75</v>
       </c>
       <c r="E97" t="n">
-        <v>94.25</v>
+        <v>84.25</v>
       </c>
       <c r="F97" t="n">
-        <v>8.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1822722.0</v>
+        <v>786499.0</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D98" t="n">
-        <v>83.25</v>
+        <v>76.5</v>
       </c>
       <c r="E98" t="n">
-        <v>92.75</v>
+        <v>79.25</v>
       </c>
       <c r="F98" t="n">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>777402.0</v>
+        <v>782463.0</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D99" t="n">
-        <v>87.75</v>
+        <v>77.5</v>
       </c>
       <c r="E99" t="n">
-        <v>97.5</v>
+        <v>82.0</v>
       </c>
       <c r="F99" t="n">
-        <v>9.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1822746.0</v>
+        <v>773396.0</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D100" t="n">
-        <v>81.5</v>
+        <v>74.0</v>
       </c>
       <c r="E100" t="n">
-        <v>95.75</v>
+        <v>79.25</v>
       </c>
       <c r="F100" t="n">
-        <v>14.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>768031.0</v>
+        <v>773307.0</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D101" t="n">
-        <v>92.0</v>
+        <v>73.5</v>
       </c>
       <c r="E101" t="n">
-        <v>92.5</v>
+        <v>80.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>779040.0</v>
+        <v>1801247.0</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D102" t="n">
-        <v>84.0</v>
+        <v>93.25</v>
       </c>
       <c r="E102" t="n">
-        <v>84.5</v>
+        <v>93.75</v>
       </c>
       <c r="F102" t="n">
         <v>0.5</v>
@@ -2560,39 +2581,39 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1801222.0</v>
+        <v>776314.0</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D103" t="n">
-        <v>86.25</v>
+        <v>67.25</v>
       </c>
       <c r="E103" t="n">
-        <v>86.75</v>
+        <v>68.75</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>778178.0</v>
+        <v>783595.0</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D104" t="n">
-        <v>76.5</v>
+        <v>90.25</v>
       </c>
       <c r="E104" t="n">
-        <v>78.5</v>
+        <v>92.25</v>
       </c>
       <c r="F104" t="n">
         <v>2.0</v>
@@ -2600,542 +2621,682 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>777532.0</v>
+        <v>1801873.0</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D105" t="n">
-        <v>52.25</v>
+        <v>91.75</v>
       </c>
       <c r="E105" t="n">
-        <v>56.25</v>
+        <v>94.0</v>
       </c>
       <c r="F105" t="n">
-        <v>4.0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>783315.0</v>
+        <v>778178.0</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D106" t="n">
-        <v>80.25</v>
+        <v>78.5</v>
       </c>
       <c r="E106" t="n">
-        <v>84.25</v>
+        <v>81.25</v>
       </c>
       <c r="F106" t="n">
-        <v>4.0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>786219.0</v>
+        <v>779040.0</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D107" t="n">
-        <v>86.5</v>
+        <v>84.5</v>
       </c>
       <c r="E107" t="n">
-        <v>86.75</v>
+        <v>87.5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.25</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1801885.0</v>
+        <v>777532.0</v>
       </c>
       <c r="B108" t="s">
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D108" t="n">
-        <v>86.5</v>
+        <v>56.25</v>
       </c>
       <c r="E108" t="n">
-        <v>87.75</v>
+        <v>62.0</v>
       </c>
       <c r="F108" t="n">
-        <v>1.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>783304.0</v>
+        <v>786716.0</v>
       </c>
       <c r="B109" t="s">
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D109" t="n">
-        <v>93.75</v>
+        <v>82.25</v>
       </c>
       <c r="E109" t="n">
-        <v>96.25</v>
+        <v>88.25</v>
       </c>
       <c r="F109" t="n">
-        <v>2.5</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>786474.0</v>
+        <v>786219.0</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D110" t="n">
-        <v>76.0</v>
+        <v>86.75</v>
       </c>
       <c r="E110" t="n">
-        <v>78.75</v>
+        <v>87.5</v>
       </c>
       <c r="F110" t="n">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>777291.0</v>
+        <v>1801427.0</v>
       </c>
       <c r="B111" t="s">
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D111" t="n">
-        <v>88.75</v>
+        <v>86.0</v>
       </c>
       <c r="E111" t="n">
-        <v>91.75</v>
+        <v>90.25</v>
       </c>
       <c r="F111" t="n">
-        <v>3.0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>786230.0</v>
+        <v>783647.0</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D112" t="n">
-        <v>85.0</v>
+        <v>75.25</v>
       </c>
       <c r="E112" t="n">
-        <v>88.75</v>
+        <v>80.0</v>
       </c>
       <c r="F112" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>772317.0</v>
+        <v>775466.0</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D113" t="n">
-        <v>82.75</v>
+        <v>86.75</v>
       </c>
       <c r="E113" t="n">
-        <v>87.5</v>
+        <v>87.0</v>
       </c>
       <c r="F113" t="n">
-        <v>4.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>775578.0</v>
+        <v>788290.0</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D114" t="n">
-        <v>84.0</v>
+        <v>83.5</v>
       </c>
       <c r="E114" t="n">
-        <v>89.0</v>
+        <v>83.75</v>
       </c>
       <c r="F114" t="n">
-        <v>5.0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>782032.0</v>
+        <v>788512.0</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D115" t="n">
-        <v>76.75</v>
+        <v>90.0</v>
       </c>
       <c r="E115" t="n">
-        <v>83.25</v>
+        <v>90.25</v>
       </c>
       <c r="F115" t="n">
-        <v>6.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>788290.0</v>
+        <v>781389.0</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D116" t="n">
-        <v>83.0</v>
+        <v>91.0</v>
       </c>
       <c r="E116" t="n">
-        <v>83.5</v>
+        <v>91.75</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>789023.0</v>
+        <v>781266.0</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D117" t="n">
-        <v>82.5</v>
+        <v>81.25</v>
       </c>
       <c r="E117" t="n">
-        <v>83.0</v>
+        <v>82.25</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>781266.0</v>
+        <v>1801874.0</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D118" t="n">
-        <v>80.5</v>
+        <v>92.0</v>
       </c>
       <c r="E118" t="n">
-        <v>81.25</v>
+        <v>93.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>775466.0</v>
+        <v>777633.0</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D119" t="n">
-        <v>85.75</v>
+        <v>90.25</v>
       </c>
       <c r="E119" t="n">
-        <v>86.75</v>
+        <v>91.75</v>
       </c>
       <c r="F119" t="n">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1801229.0</v>
+        <v>781188.0</v>
       </c>
       <c r="B120" t="s">
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D120" t="n">
-        <v>93.75</v>
+        <v>82.75</v>
       </c>
       <c r="E120" t="n">
-        <v>95.25</v>
+        <v>84.5</v>
       </c>
       <c r="F120" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1802074.0</v>
+        <v>775755.0</v>
       </c>
       <c r="B121" t="s">
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D121" t="n">
-        <v>89.5</v>
+        <v>86.5</v>
       </c>
       <c r="E121" t="n">
-        <v>92.0</v>
+        <v>88.5</v>
       </c>
       <c r="F121" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1801874.0</v>
+        <v>781824.0</v>
       </c>
       <c r="B122" t="s">
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D122" t="n">
-        <v>88.25</v>
+        <v>88.0</v>
       </c>
       <c r="E122" t="n">
-        <v>92.0</v>
+        <v>90.25</v>
       </c>
       <c r="F122" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>788512.0</v>
+        <v>781187.0</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D123" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="E123" t="n">
-        <v>90.0</v>
+        <v>88.25</v>
       </c>
       <c r="F123" t="n">
-        <v>5.0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>781194.0</v>
+        <v>786174.0</v>
       </c>
       <c r="B124" t="s">
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D124" t="n">
-        <v>82.25</v>
+        <v>84.25</v>
       </c>
       <c r="E124" t="n">
-        <v>87.5</v>
+        <v>91.0</v>
       </c>
       <c r="F124" t="n">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>777633.0</v>
+        <v>787163.0</v>
       </c>
       <c r="B125" t="s">
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D125" t="n">
-        <v>84.25</v>
+        <v>72.25</v>
       </c>
       <c r="E125" t="n">
-        <v>90.25</v>
+        <v>72.75</v>
       </c>
       <c r="F125" t="n">
-        <v>6.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>763056.0</v>
+        <v>786603.0</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D126" t="n">
-        <v>81.0</v>
+        <v>76.5</v>
       </c>
       <c r="E126" t="n">
-        <v>81.5</v>
+        <v>77.75</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>769140.0</v>
+        <v>762871.0</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D127" t="n">
-        <v>83.0</v>
+        <v>80.75</v>
       </c>
       <c r="E127" t="n">
-        <v>83.75</v>
+        <v>82.25</v>
       </c>
       <c r="F127" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>766715.0</v>
+        <v>1822528.0</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D128" t="n">
-        <v>82.5</v>
+        <v>74.25</v>
       </c>
       <c r="E128" t="n">
-        <v>83.5</v>
+        <v>75.75</v>
       </c>
       <c r="F128" t="n">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>767277.0</v>
+        <v>774786.0</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D129" t="n">
-        <v>78.75</v>
+        <v>67.75</v>
       </c>
       <c r="E129" t="n">
-        <v>79.75</v>
+        <v>70.0</v>
       </c>
       <c r="F129" t="n">
-        <v>1.0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1822429.0</v>
+        <v>775826.0</v>
       </c>
       <c r="B130" t="s">
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D130" t="n">
-        <v>85.5</v>
+        <v>87.25</v>
       </c>
       <c r="E130" t="n">
-        <v>87.5</v>
+        <v>89.5</v>
       </c>
       <c r="F130" t="n">
-        <v>2.0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>786429.0</v>
+        <v>781520.0</v>
       </c>
       <c r="B131" t="s">
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>81.0</v>
+        <v>70.5</v>
       </c>
       <c r="E131" t="n">
-        <v>86.75</v>
+        <v>72.75</v>
       </c>
       <c r="F131" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1822535.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="E132" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>772025.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>767277.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E134" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>763056.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="F135" t="n">
         <v>5.75</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>789103.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>761927.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" t="s">
+        <v>158</v>
+      </c>
+      <c r="D137" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>786984.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>158</v>
+      </c>
+      <c r="D138" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
